--- a/data/trans_bre/P19C02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.2453057933128056</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.803505714173082</v>
+        <v>-2.803505714173071</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1263524341092209</v>
@@ -649,7 +649,7 @@
         <v>0.007333057291515096</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.0624267072931837</v>
+        <v>-0.06242670729318348</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.018845155964039</v>
+        <v>-3.212796500676172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.591105293663943</v>
+        <v>-3.462568420488481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.089311335315948</v>
+        <v>-7.144866340686328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.47953474482777</v>
+        <v>-14.08868139046056</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1106783824070121</v>
+        <v>-0.1094046333838729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1401143299613052</v>
+        <v>-0.1326367211377244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1908947403917929</v>
+        <v>-0.1883553008643494</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2647769980246668</v>
+        <v>-0.2852429091775889</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.06355094647815</v>
+        <v>9.318026363412121</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.186076984650557</v>
+        <v>9.194978587109958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.084927496487667</v>
+        <v>7.193792510366075</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.174407377266252</v>
+        <v>6.974991255996306</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4446620010572923</v>
+        <v>0.4138377053196098</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4385001968814086</v>
+        <v>0.4495699395737303</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2385774439070501</v>
+        <v>0.2309228535644892</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2086142978528236</v>
+        <v>0.1766740523160195</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.235995837905176</v>
+        <v>-6.545844909666338</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.675952424274358</v>
+        <v>-5.385262078969451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.691261673850063</v>
+        <v>-8.496471714741297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.44388295413846</v>
+        <v>-9.976187523548417</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1685205497271015</v>
+        <v>-0.1576120578862955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1466740770739873</v>
+        <v>-0.1390020143046548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1962568038007318</v>
+        <v>-0.1950565978228505</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1720145366889682</v>
+        <v>-0.1653877820994527</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.899928562344951</v>
+        <v>4.822417730516723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.843882492670092</v>
+        <v>5.987079868198052</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.308631124707939</v>
+        <v>3.566569180783965</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.063525970345252</v>
+        <v>4.880010870440906</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1358450721382446</v>
+        <v>0.1326139352335836</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1733157511529082</v>
+        <v>0.1834183469163603</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09590465212183624</v>
+        <v>0.09559659922549796</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09858925564102002</v>
+        <v>0.09695423765874597</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.186361937742433</v>
+        <v>-7.631802237220872</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.987840546208804</v>
+        <v>-5.163559202330152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.094084267404305</v>
+        <v>-3.823026100464944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.77345013075707</v>
+        <v>-4.524633183002353</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.185345993091529</v>
+        <v>-0.1978495712311678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.121272194984293</v>
+        <v>-0.123261898035103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08856995694595496</v>
+        <v>-0.08391113290429386</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06597739666875647</v>
+        <v>-0.0782988831611216</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.143556131735433</v>
+        <v>3.703607055189218</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.327159371272313</v>
+        <v>6.543718193709118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.167254804984042</v>
+        <v>8.398468332753861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.22080569769898</v>
+        <v>6.470530050789394</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1252276709741284</v>
+        <v>0.1133616953127881</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1803561240224388</v>
+        <v>0.1834331160733376</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2093704085730573</v>
+        <v>0.2128071937580299</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.140403278067079</v>
+        <v>0.1277837417103459</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.68859701150974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.337314969542816</v>
+        <v>4.337314969542804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0441718039505505</v>
@@ -949,7 +949,7 @@
         <v>0.1792527074097317</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.08672740561750217</v>
+        <v>0.08672740561750192</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.92744793153411</v>
+        <v>-5.28034293830722</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.083180719221423</v>
+        <v>-1.196233650472162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1029198222521672</v>
+        <v>0.3093462110158224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.928174900903831</v>
+        <v>-0.5199975852379215</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1464746281859671</v>
+        <v>-0.1625412660405062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02620949960784998</v>
+        <v>-0.03334727397457599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006856063035236372</v>
+        <v>0.00566016878362467</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01653349049075209</v>
+        <v>-0.009572895613592852</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.26622553470466</v>
+        <v>7.818180925044778</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.33824375267354</v>
+        <v>10.95612046322122</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.52336216208744</v>
+        <v>13.64239236802557</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.04267586557093</v>
+        <v>9.340895156729575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3082990738687099</v>
+        <v>0.2939700718539068</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3736797431395948</v>
+        <v>0.3546262052964481</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3632467264224181</v>
+        <v>0.3925932043092528</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1924252676199371</v>
+        <v>0.2005250267858059</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.566334233334182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.26822594903964</v>
+        <v>5.268225949039645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2919753846357918</v>
@@ -1049,7 +1049,7 @@
         <v>0.2332905889557012</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1141126752219236</v>
+        <v>0.1141126752219237</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.552106907292874</v>
+        <v>-1.532258818043415</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.369491607072388</v>
+        <v>-1.743408766917897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4124021348827016</v>
+        <v>-0.4779129840943746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2725056110210053</v>
+        <v>-0.001312363319827208</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07502227697234276</v>
+        <v>-0.06609784038244954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.05485236643654252</v>
+        <v>-0.06283037848351779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.008311470333020593</v>
+        <v>-0.01391598236252105</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.005636291140081058</v>
+        <v>-3.86427748963155e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.44560254706681</v>
+        <v>12.13658699440696</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.24373182492002</v>
+        <v>11.93941127056883</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.46796924658489</v>
+        <v>12.62427371166025</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.4343249264972</v>
+        <v>9.732834783815141</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7883174143347592</v>
+        <v>0.7575258097704669</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6116341230830162</v>
+        <v>0.5843716572282391</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5554250883126365</v>
+        <v>0.50352236210863</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2440484222992656</v>
+        <v>0.226049681119913</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.901136677548747</v>
+        <v>1.550983316291989</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.209377048452798</v>
+        <v>-1.849049599498436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8775040655178423</v>
+        <v>0.1738094496109716</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.216447149771507</v>
+        <v>-1.88045430174793</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1189793573437071</v>
+        <v>0.1120290578028736</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1317394040948981</v>
+        <v>-0.1019165118183963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02999456567569848</v>
+        <v>0.01150926848102064</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05023140671218351</v>
+        <v>-0.04109373668240265</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.74773090155339</v>
+        <v>13.87678718138559</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.80631496964245</v>
+        <v>10.95498618275397</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.20711206293872</v>
+        <v>15.68733393801893</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.741340471265238</v>
+        <v>8.794700958771873</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.073814391965722</v>
+        <v>2.016243065197909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.065314557294208</v>
+        <v>1.138842844437636</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9306817507806356</v>
+        <v>0.8730714035244741</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2363930827426166</v>
+        <v>0.2443945220307003</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.254613419257774</v>
+        <v>-5.562016909661378</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.908175022593312</v>
+        <v>-9.881725844264306</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.467123207776677</v>
+        <v>-7.565454116990411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.308902139346694</v>
+        <v>-2.225193544746337</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7140035099616316</v>
+        <v>-0.7048071234148198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5078666977166124</v>
+        <v>-0.4970571556777542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3671980471127527</v>
+        <v>-0.3344573307005069</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08139400648333316</v>
+        <v>-0.07330263441934783</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.875545905664951</v>
+        <v>4.700154601383355</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.854300866636915</v>
+        <v>3.829488155540305</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.666823180074088</v>
+        <v>8.945425752689545</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.6943256642721</v>
+        <v>8.734872829695771</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.410539473532003</v>
+        <v>2.063167243622464</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4338345216183159</v>
+        <v>0.3953747461405067</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4917279992141801</v>
+        <v>0.593732559070363</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3809806513668214</v>
+        <v>0.3787322075056027</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.06714256642606527</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.03152772196169824</v>
+        <v>0.03152772196169825</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.850397465644256</v>
+        <v>-2.251481011097993</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.8146133076749132</v>
+        <v>-0.9717897505029357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.07998208674959584</v>
+        <v>-0.3800104945175713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.013163540611321</v>
+        <v>-0.8292476538588978</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06415157600126103</v>
+        <v>-0.07417391110204874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.026377305052016</v>
+        <v>-0.03160944255846217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.002185537136337797</v>
+        <v>-0.01044125244075886</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02080718206232818</v>
+        <v>-0.0172635637693951</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.094267838797249</v>
+        <v>2.873342698774781</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.013410446208208</v>
+        <v>3.923490120349544</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.046921784975142</v>
+        <v>4.887429081433221</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.809567725876013</v>
+        <v>3.74112148230611</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1112612824179293</v>
+        <v>0.1040246949864639</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1416014656592068</v>
+        <v>0.1388289388784403</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1511080160102892</v>
+        <v>0.1443274853527011</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08332746563732985</v>
+        <v>0.0817317146003481</v>
       </c>
     </row>
     <row r="28">
